--- a/dma.xlsx
+++ b/dma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/ddimitrov_dxc_com/Documents/Documents/GitHub/New/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/ddimitrov_dxc_com/Documents/Documents/GitHub/WLD-P1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{EF25981A-CC8D-49F9-B306-9370C50B4135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C877285-C7C5-4865-828E-F6643F4FA210}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="8_{EF25981A-CC8D-49F9-B306-9370C50B4135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7DB0FEC-DD6E-42C4-8B3F-7355DB3C9C6D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="285" windowWidth="24510" windowHeight="15990" xr2:uid="{51400913-1EE0-42F7-B42B-97AB2B3A6B06}"/>
+    <workbookView xWindow="28680" yWindow="285" windowWidth="24510" windowHeight="15990" activeTab="1" xr2:uid="{51400913-1EE0-42F7-B42B-97AB2B3A6B06}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="29">
   <si>
     <t>question</t>
   </si>
@@ -106,6 +106,24 @@
   </si>
   <si>
     <t>Strongly Disagree</t>
+  </si>
+  <si>
+    <t>mc</t>
+  </si>
+  <si>
+    <t>1. The employees have all needed technological, process and organizational knowledge and skills to solve and deliver complicated technical solutions internally(within the company) and externally(to clients).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. The employees and the organization are fully supporting the digital agenda of the company. </t>
+  </si>
+  <si>
+    <t>3. There is clear digital leadership at any level and it is an integral part of the overall company strategy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Digital technologies and tools are embedded within the company’s strategy. Digitalization is considered instrumental for achieving the business objectives. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. There is a healthy budget to cover the company's digital agenda, digital operations and innovation engine. </t>
   </si>
 </sst>
 </file>
@@ -509,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96C6AC7-A28A-402D-8D19-677444B395FA}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,13 +1001,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64073096-136F-4394-9013-34FC21883346}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1016,13 +1037,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1033,13 +1054,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -1050,18 +1071,392 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="b">
         <v>1</v>
       </c>
     </row>

--- a/dma.xlsx
+++ b/dma.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/ddimitrov_dxc_com/Documents/Documents/GitHub/WLD-P1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{EF25981A-CC8D-49F9-B306-9370C50B4135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7DB0FEC-DD6E-42C4-8B3F-7355DB3C9C6D}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="8_{EF25981A-CC8D-49F9-B306-9370C50B4135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EEB29B6-FFA1-4F76-A1BE-B81CF7983A3D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="285" windowWidth="24510" windowHeight="15990" activeTab="1" xr2:uid="{51400913-1EE0-42F7-B42B-97AB2B3A6B06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27405" windowHeight="16440" activeTab="1" xr2:uid="{51400913-1EE0-42F7-B42B-97AB2B3A6B06}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
-    <sheet name="dma" sheetId="2" r:id="rId2"/>
+    <sheet name="dig_ma" sheetId="2" r:id="rId2"/>
+    <sheet name="data_ma" sheetId="3" r:id="rId3"/>
+    <sheet name="nis2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="48">
   <si>
     <t>question</t>
   </si>
@@ -124,6 +126,63 @@
   </si>
   <si>
     <t xml:space="preserve">5. There is a healthy budget to cover the company's digital agenda, digital operations and innovation engine. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Organizational design is highly influenced by the digital agenda. There are well defined digital roles. </t>
+  </si>
+  <si>
+    <t>dmaId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. The company has well defined processes with clear owners. The processes are digitally enabled and follow the industry's best practices. </t>
+  </si>
+  <si>
+    <t>dmaId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. The employees and operations managers are driving the digital agenda and its adoption. They are willing to sacrifice time and effort. </t>
+  </si>
+  <si>
+    <t>dmaId7</t>
+  </si>
+  <si>
+    <t>9. Customers &amp; Partners: The customers of your services / products as well as the partners in your value chain have adopted the usage of digital collaboration tools. They(customers &amp; partners) are open to experiment and innovate</t>
+  </si>
+  <si>
+    <t>dmaId8</t>
+  </si>
+  <si>
+    <t>10. Project Management (PM) : The company has well defined PM processes, techniques and resources which are used in develop / maintain / transform / improve projects across all organizations.</t>
+  </si>
+  <si>
+    <t>dmaId9</t>
+  </si>
+  <si>
+    <t>dmaId10</t>
+  </si>
+  <si>
+    <t>11. Technology and IS: The informational technology tools in the company are covering the complete products / services cycle and are well integrated internally and externally</t>
+  </si>
+  <si>
+    <t>dmaId11</t>
+  </si>
+  <si>
+    <t>12. Data : There is a clear data governance model which is well implemented across all levels and organizations.</t>
+  </si>
+  <si>
+    <t>dmaId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. Reporting : There is a companywide holistic approach to data representation and clear KPIs on operational and strategic level which are always available and up to date. </t>
+  </si>
+  <si>
+    <t>dmaId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. Innovation: The company has a well-structured process / programme to innovate that supports its evolution and journey. </t>
+  </si>
+  <si>
+    <t>dmaId14</t>
   </si>
 </sst>
 </file>
@@ -1001,15 +1060,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64073096-136F-4394-9013-34FC21883346}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.140625" customWidth="1"/>
+    <col min="1" max="1" width="145.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1046,7 +1105,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1063,7 +1122,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1080,7 +1139,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -1097,7 +1156,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1114,7 +1173,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -1131,7 +1190,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1148,7 +1207,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1165,7 +1224,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1182,7 +1241,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1199,7 +1258,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -1216,7 +1275,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -1233,7 +1292,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -1250,7 +1309,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -1267,7 +1326,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -1284,7 +1343,7 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -1301,7 +1360,7 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -1318,7 +1377,7 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1335,7 +1394,7 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -1352,7 +1411,7 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -1369,7 +1428,7 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1386,7 +1445,7 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -1403,7 +1462,7 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -1420,7 +1479,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -1437,7 +1496,7 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -1454,13 +1513,788 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" t="s">
+        <v>43</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" t="s">
+        <v>45</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" t="s">
+        <v>45</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" t="s">
+        <v>45</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" t="s">
+        <v>45</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" t="s">
+        <v>45</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>47</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>47</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>47</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" t="s">
+        <v>47</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FE6C82-200A-4938-9AC4-06101747C730}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57452AB-608B-47F5-AB90-952C7DB11B01}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dma.xlsx
+++ b/dma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/ddimitrov_dxc_com/Documents/Documents/GitHub/WLD-P1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="8_{EF25981A-CC8D-49F9-B306-9370C50B4135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EEB29B6-FFA1-4F76-A1BE-B81CF7983A3D}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="8_{EF25981A-CC8D-49F9-B306-9370C50B4135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A0CEA95-48A8-4825-ACF9-E0DFD25D08B8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27405" windowHeight="16440" activeTab="1" xr2:uid="{51400913-1EE0-42F7-B42B-97AB2B3A6B06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27405" windowHeight="16440" activeTab="2" xr2:uid="{51400913-1EE0-42F7-B42B-97AB2B3A6B06}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="55">
   <si>
     <t>question</t>
   </si>
@@ -183,6 +183,27 @@
   </si>
   <si>
     <t>dmaId14</t>
+  </si>
+  <si>
+    <t>nisId1</t>
+  </si>
+  <si>
+    <t>nisId2</t>
+  </si>
+  <si>
+    <t>nisId3</t>
+  </si>
+  <si>
+    <t>nisId4</t>
+  </si>
+  <si>
+    <t>nisId5</t>
+  </si>
+  <si>
+    <t>ID1</t>
+  </si>
+  <si>
+    <t>ID2</t>
   </si>
 </sst>
 </file>
@@ -1062,13 +1083,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64073096-136F-4394-9013-34FC21883346}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="145.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2206,6 +2228,9 @@
       <c r="B67" t="s">
         <v>21</v>
       </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
       <c r="D67" t="s">
         <v>47</v>
       </c>
@@ -2220,6 +2245,9 @@
       <c r="B68" t="s">
         <v>8</v>
       </c>
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
       <c r="D68" t="s">
         <v>47</v>
       </c>
@@ -2234,6 +2262,9 @@
       <c r="B69" t="s">
         <v>10</v>
       </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
       <c r="D69" t="s">
         <v>47</v>
       </c>
@@ -2248,6 +2279,9 @@
       <c r="B70" t="s">
         <v>9</v>
       </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
       <c r="D70" t="s">
         <v>47</v>
       </c>
@@ -2261,6 +2295,9 @@
       </c>
       <c r="B71" t="s">
         <v>22</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
       </c>
       <c r="D71" t="s">
         <v>47</v>
@@ -2277,24 +2314,691 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FE6C82-200A-4938-9AC4-06101747C730}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="63.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57452AB-608B-47F5-AB90-952C7DB11B01}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="138.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dma.xlsx
+++ b/dma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/ddimitrov_dxc_com/Documents/Documents/GitHub/WLD-P1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="252" documentId="8_{EF25981A-CC8D-49F9-B306-9370C50B4135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A0CEA95-48A8-4825-ACF9-E0DFD25D08B8}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="8_{EF25981A-CC8D-49F9-B306-9370C50B4135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5BEB10C-EA13-4A68-AC5B-5B75188FC1A6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27405" windowHeight="16440" activeTab="2" xr2:uid="{51400913-1EE0-42F7-B42B-97AB2B3A6B06}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="58">
   <si>
     <t>question</t>
   </si>
@@ -200,10 +200,19 @@
     <t>nisId5</t>
   </si>
   <si>
-    <t>ID1</t>
-  </si>
-  <si>
-    <t>ID2</t>
+    <t>datamId1</t>
+  </si>
+  <si>
+    <t>datamId2</t>
+  </si>
+  <si>
+    <t>datamId3</t>
+  </si>
+  <si>
+    <t>datamId4</t>
+  </si>
+  <si>
+    <t>datamId5</t>
   </si>
 </sst>
 </file>
@@ -2314,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FE6C82-200A-4938-9AC4-06101747C730}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,6 +2533,261 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2535,7 +2799,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G26"/>
+      <selection activeCell="A12" sqref="A12:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dma.xlsx
+++ b/dma.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/ddimitrov_dxc_com/Documents/Documents/GitHub/WLD-P1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="8_{EF25981A-CC8D-49F9-B306-9370C50B4135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5BEB10C-EA13-4A68-AC5B-5B75188FC1A6}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="8_{EF25981A-CC8D-49F9-B306-9370C50B4135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07597726-F122-4D34-8E75-78B017E15A85}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27405" windowHeight="16440" activeTab="2" xr2:uid="{51400913-1EE0-42F7-B42B-97AB2B3A6B06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27405" windowHeight="16440" activeTab="1" xr2:uid="{51400913-1EE0-42F7-B42B-97AB2B3A6B06}"/>
   </bookViews>
   <sheets>
-    <sheet name="Questions" sheetId="1" r:id="rId1"/>
+    <sheet name="General Questions" sheetId="1" r:id="rId1"/>
     <sheet name="dig_ma" sheetId="2" r:id="rId2"/>
     <sheet name="data_ma" sheetId="3" r:id="rId3"/>
     <sheet name="nis2" sheetId="4" r:id="rId4"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="89">
   <si>
     <t>question</t>
   </si>
@@ -62,9 +62,6 @@
     <t>required</t>
   </si>
   <si>
-    <t>The employees have all needed technological, process and organizational knowledge and skills to solve and deliver complicated technical solutions internally(within the company) and externally(to clients).</t>
-  </si>
-  <si>
     <t>Agree</t>
   </si>
   <si>
@@ -74,24 +71,6 @@
     <t xml:space="preserve">Neutral </t>
   </si>
   <si>
-    <t>matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The employees and the organization are fully supporting the digital agenda of the company. </t>
-  </si>
-  <si>
-    <t>There is clear digital leadership at any level and it is an integral part of the overall company strategy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital technologies and tools are embedded within the company’s strategy. Digitalization is considered instrumental for achieving the business objectives. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is a healthy budget to cover the company's digital agenda, digital operations and innovation engine. </t>
-  </si>
-  <si>
-    <t>dmaId</t>
-  </si>
-  <si>
     <t>dmaId1</t>
   </si>
   <si>
@@ -213,6 +192,120 @@
   </si>
   <si>
     <t>datamId5</t>
+  </si>
+  <si>
+    <t>Position :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Name :  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact E-mail : </t>
+  </si>
+  <si>
+    <t>Contact phone :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How big is your company : </t>
+  </si>
+  <si>
+    <t>Please select your industry :</t>
+  </si>
+  <si>
+    <t>Company name :</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agro </t>
+  </si>
+  <si>
+    <t>Automotive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biotechnology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemicals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mining and row materials </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food and drinks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel and transportation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tourism </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturing </t>
+  </si>
+  <si>
+    <t>genID1</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>genID2</t>
+  </si>
+  <si>
+    <t>genID3</t>
+  </si>
+  <si>
+    <t>genID4</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>genID5</t>
+  </si>
+  <si>
+    <t>genID6</t>
+  </si>
+  <si>
+    <t>genID7</t>
+  </si>
+  <si>
+    <t>0-10</t>
+  </si>
+  <si>
+    <t>10-50</t>
+  </si>
+  <si>
+    <t>50-250</t>
+  </si>
+  <si>
+    <t>+250</t>
+  </si>
+  <si>
+    <t>G1. Please select your industry :</t>
+  </si>
+  <si>
+    <t>G2. Company name :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G3. Contact Name :  </t>
+  </si>
+  <si>
+    <t>G4. Position :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G5. Contact E-mail : </t>
+  </si>
+  <si>
+    <t>G6. Contact phone :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G7. How big is your company : </t>
   </si>
 </sst>
 </file>
@@ -262,9 +355,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,23 +709,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96C6AC7-A28A-402D-8D19-677444B395FA}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G26"/>
+      <selection activeCell="A2" sqref="A2:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -653,256 +749,276 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
+      <c r="L5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
+      <c r="L10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -910,16 +1026,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
+        <v>55</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -927,16 +1043,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
+        <v>55</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -944,16 +1060,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -961,119 +1077,53 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
+        <v>55</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="G21" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="G22" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="G23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="G24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="G25" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="G26" t="b">
         <v>1</v>
       </c>
@@ -1090,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64073096-136F-4394-9013-34FC21883346}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,16 +1177,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1144,16 +1194,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1161,16 +1211,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -1178,16 +1228,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1195,16 +1245,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -1212,16 +1262,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1229,16 +1279,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1246,16 +1296,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1263,16 +1313,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1280,16 +1330,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -1297,16 +1347,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -1314,16 +1361,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -1331,16 +1375,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -1348,16 +1389,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -1365,16 +1403,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -1382,16 +1417,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -1399,16 +1434,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1416,16 +1451,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -1433,16 +1468,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -1450,16 +1485,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1467,16 +1502,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -1484,16 +1519,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -1501,16 +1536,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
         <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -1518,16 +1553,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -1535,16 +1570,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -1552,16 +1587,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -1569,16 +1604,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -1586,16 +1621,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -1603,16 +1638,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -1620,16 +1655,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -1637,16 +1672,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -1654,16 +1689,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -1671,16 +1706,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -1688,16 +1723,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -1705,16 +1740,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -1722,16 +1757,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -1739,16 +1774,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -1756,16 +1791,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -1773,16 +1808,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -1790,16 +1825,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
         <v>23</v>
-      </c>
-      <c r="D41" t="s">
-        <v>36</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -1807,16 +1842,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
         <v>23</v>
-      </c>
-      <c r="D42" t="s">
-        <v>38</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -1824,16 +1859,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
         <v>23</v>
-      </c>
-      <c r="D43" t="s">
-        <v>38</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -1841,16 +1876,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
         <v>23</v>
-      </c>
-      <c r="D44" t="s">
-        <v>38</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -1858,16 +1893,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
         <v>23</v>
-      </c>
-      <c r="D45" t="s">
-        <v>38</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -1875,16 +1910,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -1892,16 +1927,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -1909,16 +1944,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -1926,16 +1961,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -1943,16 +1978,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -1960,16 +1995,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -1977,16 +2012,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -1994,16 +2029,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -2011,16 +2046,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -2028,16 +2063,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
@@ -2045,16 +2080,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -2062,16 +2097,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -2079,16 +2114,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -2096,16 +2131,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -2113,16 +2148,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -2130,16 +2165,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
@@ -2147,16 +2182,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
@@ -2164,16 +2199,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -2181,16 +2216,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -2198,16 +2233,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -2215,16 +2250,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
@@ -2232,16 +2267,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
@@ -2249,16 +2284,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
@@ -2266,16 +2301,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -2283,16 +2318,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -2300,18 +2335,341 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
+        <v>38</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" t="s">
+        <v>40</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>40</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>40</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2325,7 +2683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FE6C82-200A-4938-9AC4-06101747C730}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -2365,16 +2723,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -2382,16 +2740,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -2399,16 +2757,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -2416,16 +2774,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -2433,16 +2791,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -2450,16 +2808,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -2467,16 +2825,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -2484,16 +2842,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -2501,16 +2859,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -2518,16 +2876,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -2535,16 +2893,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -2552,16 +2910,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2569,16 +2927,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2586,16 +2944,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2603,16 +2961,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -2620,16 +2978,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -2637,16 +2995,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2654,16 +3012,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2671,16 +3029,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2688,16 +3046,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2705,16 +3063,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2722,16 +3080,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -2739,16 +3097,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -2756,16 +3114,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -2773,16 +3131,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2838,16 +3196,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -2855,16 +3213,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -2872,16 +3230,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -2889,16 +3247,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -2906,16 +3264,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -2923,16 +3281,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -2940,16 +3298,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -2957,16 +3315,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -2974,16 +3332,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -2991,16 +3349,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3008,16 +3366,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -3025,16 +3383,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -3042,16 +3400,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -3059,16 +3417,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3076,16 +3434,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -3093,16 +3451,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -3110,16 +3468,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -3127,16 +3485,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -3144,16 +3502,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -3161,16 +3519,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -3178,16 +3536,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -3195,16 +3553,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -3212,16 +3570,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -3229,16 +3587,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -3246,16 +3604,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
